--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H2">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I2">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J2">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q2">
-        <v>93.15563228671598</v>
+        <v>178.227825082205</v>
       </c>
       <c r="R2">
-        <v>93.15563228671598</v>
+        <v>1604.050425739845</v>
       </c>
       <c r="S2">
-        <v>0.004188911011368505</v>
+        <v>0.007043741637182232</v>
       </c>
       <c r="T2">
-        <v>0.004188911011368505</v>
+        <v>0.007043741637182231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H3">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I3">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J3">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N3">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q3">
-        <v>10.86553773902568</v>
+        <v>18.000446112016</v>
       </c>
       <c r="R3">
-        <v>10.86553773902568</v>
+        <v>162.004015008144</v>
       </c>
       <c r="S3">
-        <v>0.0004885885003641925</v>
+        <v>0.0007113956067666865</v>
       </c>
       <c r="T3">
-        <v>0.0004885885003641925</v>
+        <v>0.0007113956067666865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H4">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I4">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J4">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N4">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q4">
-        <v>152.6729632913853</v>
+        <v>247.650999333731</v>
       </c>
       <c r="R4">
-        <v>152.6729632913853</v>
+        <v>2228.858994003579</v>
       </c>
       <c r="S4">
-        <v>0.006865215139125204</v>
+        <v>0.009787414814113425</v>
       </c>
       <c r="T4">
-        <v>0.006865215139125204</v>
+        <v>0.009787414814113425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H5">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I5">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J5">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N5">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q5">
-        <v>127.3293738009342</v>
+        <v>258.053823494407</v>
       </c>
       <c r="R5">
-        <v>127.3293738009342</v>
+        <v>2322.484411449663</v>
       </c>
       <c r="S5">
-        <v>0.00572559493068299</v>
+        <v>0.01019854481388222</v>
       </c>
       <c r="T5">
-        <v>0.00572559493068299</v>
+        <v>0.01019854481388222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H6">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I6">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J6">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N6">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q6">
-        <v>795.7053910663178</v>
+        <v>1285.476272554447</v>
       </c>
       <c r="R6">
-        <v>795.7053910663178</v>
+        <v>11569.28645299002</v>
       </c>
       <c r="S6">
-        <v>0.03578032795896</v>
+        <v>0.05080330605182038</v>
       </c>
       <c r="T6">
-        <v>0.03578032795896</v>
+        <v>0.05080330605182039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="H7">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="I7">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="J7">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N7">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O7">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P7">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q7">
-        <v>96.98907158939606</v>
+        <v>154.624773866136</v>
       </c>
       <c r="R7">
-        <v>96.98907158939606</v>
+        <v>1391.622964795224</v>
       </c>
       <c r="S7">
-        <v>0.004361288523197161</v>
+        <v>0.006110925481576405</v>
       </c>
       <c r="T7">
-        <v>0.004361288523197161</v>
+        <v>0.006110925481576405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H8">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I8">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J8">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N8">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O8">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P8">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q8">
-        <v>154.520108156165</v>
+        <v>187.1212346926667</v>
       </c>
       <c r="R8">
-        <v>154.520108156165</v>
+        <v>1684.091112234</v>
       </c>
       <c r="S8">
-        <v>0.006948275339284158</v>
+        <v>0.007395218066526709</v>
       </c>
       <c r="T8">
-        <v>0.006948275339284158</v>
+        <v>0.007395218066526708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H9">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I9">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J9">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N9">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P9">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q9">
-        <v>18.02300113686801</v>
+        <v>18.89865232853333</v>
       </c>
       <c r="R9">
-        <v>18.02300113686801</v>
+        <v>170.0878709568</v>
       </c>
       <c r="S9">
-        <v>0.0008104367504883473</v>
+        <v>0.0007468936134507771</v>
       </c>
       <c r="T9">
-        <v>0.0008104367504883473</v>
+        <v>0.0007468936134507771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H10">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I10">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J10">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N10">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O10">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P10">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q10">
-        <v>253.243332917307</v>
+        <v>260.0085634598667</v>
       </c>
       <c r="R10">
-        <v>253.243332917307</v>
+        <v>2340.0770711388</v>
       </c>
       <c r="S10">
-        <v>0.0113875431873832</v>
+        <v>0.01027579808944804</v>
       </c>
       <c r="T10">
-        <v>0.0113875431873832</v>
+        <v>0.01027579808944803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H11">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I11">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J11">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N11">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O11">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P11">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q11">
-        <v>211.2051427080783</v>
+        <v>270.9304792737334</v>
       </c>
       <c r="R11">
-        <v>211.2051427080783</v>
+        <v>2438.374313463601</v>
       </c>
       <c r="S11">
-        <v>0.009497220149013864</v>
+        <v>0.01070744310974971</v>
       </c>
       <c r="T11">
-        <v>0.009497220149013864</v>
+        <v>0.01070744310974971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H12">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I12">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J12">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N12">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O12">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P12">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q12">
-        <v>1319.860968895426</v>
+        <v>1349.620392761733</v>
       </c>
       <c r="R12">
-        <v>1319.860968895426</v>
+        <v>12146.5835348556</v>
       </c>
       <c r="S12">
-        <v>0.05934992882733037</v>
+        <v>0.05333834574091546</v>
       </c>
       <c r="T12">
-        <v>0.05934992882733037</v>
+        <v>0.05333834574091547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="H13">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="I13">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="J13">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N13">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O13">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P13">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q13">
-        <v>160.8787516554339</v>
+        <v>162.3404122592</v>
       </c>
       <c r="R13">
-        <v>160.8787516554339</v>
+        <v>1461.0637103328</v>
       </c>
       <c r="S13">
-        <v>0.007234203212002304</v>
+        <v>0.006415855216210153</v>
       </c>
       <c r="T13">
-        <v>0.007234203212002304</v>
+        <v>0.006415855216210153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H14">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I14">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J14">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N14">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O14">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P14">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q14">
-        <v>171.4043705775216</v>
+        <v>214.1548857312283</v>
       </c>
       <c r="R14">
-        <v>171.4043705775216</v>
+        <v>1927.393971581055</v>
       </c>
       <c r="S14">
-        <v>0.007707506649721436</v>
+        <v>0.008463614953138235</v>
       </c>
       <c r="T14">
-        <v>0.007707506649721436</v>
+        <v>0.008463614953138233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H15">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I15">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J15">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N15">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O15">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P15">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q15">
-        <v>19.99235699900438</v>
+        <v>21.62896550217067</v>
       </c>
       <c r="R15">
-        <v>19.99235699900438</v>
+        <v>194.660689519536</v>
       </c>
       <c r="S15">
-        <v>0.0008989923885502076</v>
+        <v>0.0008547983167417818</v>
       </c>
       <c r="T15">
-        <v>0.0008989923885502076</v>
+        <v>0.0008547983167417818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H16">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I16">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J16">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N16">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P16">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q16">
-        <v>280.9149864027774</v>
+        <v>297.5723428094223</v>
       </c>
       <c r="R16">
-        <v>280.9149864027774</v>
+        <v>2678.1510852848</v>
       </c>
       <c r="S16">
-        <v>0.01263184899201022</v>
+        <v>0.01176035616298315</v>
       </c>
       <c r="T16">
-        <v>0.01263184899201022</v>
+        <v>0.01176035616298315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H17">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I17">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J17">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N17">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O17">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P17">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q17">
-        <v>234.2833239025884</v>
+        <v>310.0721621747996</v>
       </c>
       <c r="R17">
-        <v>234.2833239025884</v>
+        <v>2790.649459573197</v>
       </c>
       <c r="S17">
-        <v>0.0105349721877795</v>
+        <v>0.01225436150743795</v>
       </c>
       <c r="T17">
-        <v>0.0105349721877795</v>
+        <v>0.01225436150743795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H18">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I18">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J18">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N18">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O18">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P18">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q18">
-        <v>1464.08089745006</v>
+        <v>1544.601827083559</v>
       </c>
       <c r="R18">
-        <v>1464.08089745006</v>
+        <v>13901.41644375203</v>
       </c>
       <c r="S18">
-        <v>0.06583503801452263</v>
+        <v>0.06104420674649468</v>
       </c>
       <c r="T18">
-        <v>0.06583503801452263</v>
+        <v>0.06104420674649469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="H19">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="I19">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="J19">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N19">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O19">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P19">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q19">
-        <v>178.4578168876779</v>
+        <v>185.793945267784</v>
       </c>
       <c r="R19">
-        <v>178.4578168876779</v>
+        <v>1672.145507410056</v>
       </c>
       <c r="S19">
-        <v>0.008024677583903623</v>
+        <v>0.007342762262937533</v>
       </c>
       <c r="T19">
-        <v>0.008024677583903623</v>
+        <v>0.007342762262937532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H20">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I20">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J20">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N20">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O20">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P20">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q20">
-        <v>203.4328515679808</v>
+        <v>268.1241510999289</v>
       </c>
       <c r="R20">
-        <v>203.4328515679808</v>
+        <v>2413.11735989936</v>
       </c>
       <c r="S20">
-        <v>0.009147725060621248</v>
+        <v>0.01059653421773856</v>
       </c>
       <c r="T20">
-        <v>0.009147725060621248</v>
+        <v>0.01059653421773856</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H21">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I21">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J21">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N21">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O21">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P21">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q21">
-        <v>23.72811253393972</v>
+        <v>27.07969045225244</v>
       </c>
       <c r="R21">
-        <v>23.72811253393972</v>
+        <v>243.717214070272</v>
       </c>
       <c r="S21">
-        <v>0.001066977373590162</v>
+        <v>0.001070216410218547</v>
       </c>
       <c r="T21">
-        <v>0.001066977373590162</v>
+        <v>0.001070216410218547</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H22">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I22">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J22">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N22">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O22">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P22">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q22">
-        <v>333.4065318144927</v>
+        <v>372.5636776119501</v>
       </c>
       <c r="R22">
-        <v>333.4065318144927</v>
+        <v>3353.073098507551</v>
       </c>
       <c r="S22">
-        <v>0.01499222599961966</v>
+        <v>0.01472408860561832</v>
       </c>
       <c r="T22">
-        <v>0.01499222599961966</v>
+        <v>0.01472408860561832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H23">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I23">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J23">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N23">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P23">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q23">
-        <v>278.0613148646211</v>
+        <v>388.2135818613937</v>
       </c>
       <c r="R23">
-        <v>278.0613148646211</v>
+        <v>3493.922236752544</v>
       </c>
       <c r="S23">
-        <v>0.01250352850471837</v>
+        <v>0.0153425884505717</v>
       </c>
       <c r="T23">
-        <v>0.01250352850471837</v>
+        <v>0.0153425884505717</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H24">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I24">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J24">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N24">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O24">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P24">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q24">
-        <v>1737.657860712298</v>
+        <v>1933.857601520913</v>
       </c>
       <c r="R24">
-        <v>1737.657860712298</v>
+        <v>17404.71841368822</v>
       </c>
       <c r="S24">
-        <v>0.07813691956193997</v>
+        <v>0.07642798368846983</v>
       </c>
       <c r="T24">
-        <v>0.07813691956193997</v>
+        <v>0.07642798368846983</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="H25">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="I25">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="J25">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N25">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O25">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P25">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q25">
-        <v>211.8042991070491</v>
+        <v>232.6159577650346</v>
       </c>
       <c r="R25">
-        <v>211.8042991070491</v>
+        <v>2093.543619885312</v>
       </c>
       <c r="S25">
-        <v>0.009524162297068383</v>
+        <v>0.009193214956345168</v>
       </c>
       <c r="T25">
-        <v>0.009524162297068383</v>
+        <v>0.009193214956345166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H26">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I26">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J26">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N26">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O26">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P26">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q26">
-        <v>878.9412402183177</v>
+        <v>1087.108116029496</v>
       </c>
       <c r="R26">
-        <v>878.9412402183177</v>
+        <v>9783.973044265465</v>
       </c>
       <c r="S26">
-        <v>0.03952317803140958</v>
+        <v>0.04296359840257195</v>
       </c>
       <c r="T26">
-        <v>0.03952317803140958</v>
+        <v>0.04296359840257193</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H27">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I27">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J27">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N27">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O27">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P27">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q27">
-        <v>102.5184305183448</v>
+        <v>109.7944782275076</v>
       </c>
       <c r="R27">
-        <v>102.5184305183448</v>
+        <v>988.1503040475681</v>
       </c>
       <c r="S27">
-        <v>0.004609926119601356</v>
+        <v>0.004339187427479912</v>
       </c>
       <c r="T27">
-        <v>0.004609926119601356</v>
+        <v>0.004339187427479911</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H28">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I28">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J28">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N28">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O28">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P28">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q28">
-        <v>1440.498662390287</v>
+        <v>1510.557687579585</v>
       </c>
       <c r="R28">
-        <v>1440.498662390287</v>
+        <v>13595.01918821626</v>
       </c>
       <c r="S28">
-        <v>0.0647746202846475</v>
+        <v>0.05969874835459891</v>
       </c>
       <c r="T28">
-        <v>0.0647746202846475</v>
+        <v>0.05969874835459889</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H29">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I29">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J29">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N29">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O29">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P29">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q29">
-        <v>1201.377039451151</v>
+        <v>1574.010151130002</v>
       </c>
       <c r="R29">
-        <v>1201.377039451151</v>
+        <v>14166.09136017001</v>
       </c>
       <c r="S29">
-        <v>0.05402208525484777</v>
+        <v>0.06220645308188104</v>
       </c>
       <c r="T29">
-        <v>0.05402208525484777</v>
+        <v>0.06220645308188103</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H30">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I30">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J30">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N30">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P30">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q30">
-        <v>7507.632830183285</v>
+        <v>7840.816596469881</v>
       </c>
       <c r="R30">
-        <v>7507.632830183285</v>
+        <v>70567.34936822893</v>
       </c>
       <c r="S30">
-        <v>0.3375942501777325</v>
+        <v>0.309876902243468</v>
       </c>
       <c r="T30">
-        <v>0.3375942501777325</v>
+        <v>0.309876902243468</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="H31">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="I31">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="J31">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N31">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O31">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P31">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q31">
-        <v>915.1104745661559</v>
+        <v>943.1403123029254</v>
       </c>
       <c r="R31">
-        <v>915.1104745661559</v>
+        <v>8488.262810726328</v>
       </c>
       <c r="S31">
-        <v>0.04114959288484654</v>
+        <v>0.03727384702365678</v>
       </c>
       <c r="T31">
-        <v>0.04114959288484654</v>
+        <v>0.03727384702365677</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H32">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I32">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J32">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N32">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O32">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P32">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q32">
-        <v>121.1856205464413</v>
+        <v>170.5987785516295</v>
       </c>
       <c r="R32">
-        <v>121.1856205464413</v>
+        <v>1535.389006964665</v>
       </c>
       <c r="S32">
-        <v>0.005449329985374404</v>
+        <v>0.006742234099430311</v>
       </c>
       <c r="T32">
-        <v>0.005449329985374404</v>
+        <v>0.00674223409943031</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H33">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I33">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J33">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N33">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O33">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P33">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q33">
-        <v>14.13491488546713</v>
+        <v>17.22993656393422</v>
       </c>
       <c r="R33">
-        <v>14.13491488546713</v>
+        <v>155.069429075408</v>
       </c>
       <c r="S33">
-        <v>0.0006356019400550318</v>
+        <v>0.0006809442999453929</v>
       </c>
       <c r="T33">
-        <v>0.0006356019400550318</v>
+        <v>0.0006809442999453928</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H34">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I34">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J34">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N34">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O34">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P34">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q34">
-        <v>198.6113704878898</v>
+        <v>237.0502920850781</v>
       </c>
       <c r="R34">
-        <v>198.6113704878898</v>
+        <v>2133.452628765703</v>
       </c>
       <c r="S34">
-        <v>0.008930918468344179</v>
+        <v>0.009368464277088829</v>
       </c>
       <c r="T34">
-        <v>0.008930918468344179</v>
+        <v>0.009368464277088828</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H35">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I35">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J35">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N35">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O35">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P35">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q35">
-        <v>165.6420422370574</v>
+        <v>247.0078230961879</v>
       </c>
       <c r="R35">
-        <v>165.6420422370574</v>
+        <v>2223.070407865691</v>
       </c>
       <c r="S35">
-        <v>0.007448393163569577</v>
+        <v>0.009761995846887974</v>
       </c>
       <c r="T35">
-        <v>0.007448393163569577</v>
+        <v>0.009761995846887974</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H36">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I36">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J36">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N36">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O36">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P36">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q36">
-        <v>1035.128517959414</v>
+        <v>1230.451428410468</v>
       </c>
       <c r="R36">
-        <v>1035.128517959414</v>
+        <v>11074.06285569421</v>
       </c>
       <c r="S36">
-        <v>0.04654642065781003</v>
+        <v>0.04862866925985122</v>
       </c>
       <c r="T36">
-        <v>0.04654642065781003</v>
+        <v>0.04862866925985122</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="H37">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="I37">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="J37">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.84794214837555</v>
+        <v>3.879176</v>
       </c>
       <c r="N37">
-        <v>3.84794214837555</v>
+        <v>11.637528</v>
       </c>
       <c r="O37">
-        <v>0.07596749938953377</v>
+        <v>0.07218595210352802</v>
       </c>
       <c r="P37">
-        <v>0.07596749938953377</v>
+        <v>0.072185952103528</v>
       </c>
       <c r="Q37">
-        <v>126.17251945227</v>
+        <v>148.0060565358853</v>
       </c>
       <c r="R37">
-        <v>126.17251945227</v>
+        <v>1332.054508822968</v>
       </c>
       <c r="S37">
-        <v>0.005673574888515769</v>
+        <v>0.005849347162801976</v>
       </c>
       <c r="T37">
-        <v>0.005673574888515769</v>
+        <v>0.005849347162801976</v>
       </c>
     </row>
   </sheetData>
